--- a/uploads/schedule-febrero.xlsx
+++ b/uploads/schedule-febrero.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="48">
   <si>
     <t>MES</t>
   </si>
@@ -41,8 +41,7 @@
     <t>D</t>
   </si>
   <si>
-    <t>ANGIE
- SHANDRA NEREA</t>
+    <t>ANGIE</t>
   </si>
   <si>
     <t>RM</t>
@@ -54,8 +53,19 @@
     <t>F</t>
   </si>
   <si>
-    <t>JAVIER
- LUCIANO ÁLVARO</t>
+    <t>SHANDRA</t>
+  </si>
+  <si>
+    <t>NEREA</t>
+  </si>
+  <si>
+    <t>JAVIER</t>
+  </si>
+  <si>
+    <t>LUCIANO</t>
+  </si>
+  <si>
+    <t>ALVARO</t>
   </si>
   <si>
     <t>P5</t>
@@ -70,8 +80,7 @@
     <t>T1</t>
   </si>
   <si>
-    <t>VICTOR
- JAVI DIAZ SALOME</t>
+    <t>VICTOR</t>
   </si>
   <si>
     <t>T3</t>
@@ -83,21 +92,46 @@
     <t>P3</t>
   </si>
   <si>
+    <t>JAVI DIAZ</t>
+  </si>
+  <si>
+    <t>SALOME</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
     <t>M3</t>
   </si>
   <si>
-    <t>NIEVES EVELYN JAZMIN JOSE ANE ADRIAN GLADYS
- MELVA</t>
+    <t>NIEVES</t>
   </si>
   <si>
     <t>M1</t>
   </si>
   <si>
-    <t>SOFIA ALBERTO MARBEL AINHOA LOURDES
- ALESSANDRO</t>
+    <t>EVELYN</t>
+  </si>
+  <si>
+    <t>JAZMIN</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>ANE</t>
+  </si>
+  <si>
+    <t>ADRIAN</t>
+  </si>
+  <si>
+    <t>GLADYS</t>
+  </si>
+  <si>
+    <t>MELVA</t>
+  </si>
+  <si>
+    <t>SOFIA</t>
   </si>
   <si>
     <t>P2</t>
@@ -106,7 +140,22 @@
     <t>M5</t>
   </si>
   <si>
+    <t>ALBERTO</t>
+  </si>
+  <si>
     <t>P5  P4</t>
+  </si>
+  <si>
+    <t>MARBEL</t>
+  </si>
+  <si>
+    <t>AINHOA</t>
+  </si>
+  <si>
+    <t>LOURDES</t>
+  </si>
+  <si>
+    <t>ALESSANDRO</t>
   </si>
 </sst>
 </file>
@@ -574,7 +623,9 @@
     <xf borderId="7" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="19" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
     <xf borderId="2" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
@@ -602,7 +653,9 @@
     <xf borderId="3" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="20" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
     <xf borderId="20" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
@@ -1043,6 +1096,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="41.25"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -1515,7 +1571,9 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="33"/>
+      <c r="A11" s="33" t="s">
+        <v>13</v>
+      </c>
       <c r="B11" s="34" t="s">
         <v>6</v>
       </c>
@@ -1581,7 +1639,9 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="43"/>
+      <c r="A12" s="43" t="s">
+        <v>14</v>
+      </c>
       <c r="B12" s="25" t="s">
         <v>11</v>
       </c>
@@ -1672,7 +1732,7 @@
     </row>
     <row r="14">
       <c r="A14" s="20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" s="50" t="s">
         <v>7</v>
@@ -1739,7 +1799,9 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="33"/>
+      <c r="A15" s="33" t="s">
+        <v>16</v>
+      </c>
       <c r="B15" s="56" t="s">
         <v>10</v>
       </c>
@@ -1805,7 +1867,9 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="43"/>
+      <c r="A16" s="43" t="s">
+        <v>17</v>
+      </c>
       <c r="B16" s="21">
         <v>1.0</v>
       </c>
@@ -1825,7 +1889,7 @@
         <v>7</v>
       </c>
       <c r="H16" s="63" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I16" s="21">
         <v>1.0</v>
@@ -1834,7 +1898,7 @@
         <v>1.0</v>
       </c>
       <c r="K16" s="64" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L16" s="50" t="s">
         <v>7</v>
@@ -1843,19 +1907,19 @@
         <v>7</v>
       </c>
       <c r="N16" s="64" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O16" s="63" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="P16" s="65">
         <v>1.0</v>
       </c>
       <c r="Q16" s="58" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="R16" s="59" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="S16" s="50" t="s">
         <v>7</v>
@@ -1896,140 +1960,144 @@
     </row>
     <row r="18">
       <c r="A18" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="C18" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="D18" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="J18" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="K18" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="Q18" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="R18" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="S18" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="T18" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="U18" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="V18" s="63" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="E19" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="F19" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="C18" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="D18" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="67" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="J18" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="K18" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="M18" s="58" t="s">
+      <c r="H19" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="L19" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="M19" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="N18" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="O18" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="P18" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="Q18" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="R18" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="S18" s="67" t="s">
-        <v>16</v>
-      </c>
-      <c r="T18" s="58" t="s">
+      <c r="O19" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="P19" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q19" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="R19" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="S19" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="T19" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="U18" s="59" t="s">
+      <c r="U19" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="V18" s="63" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="33"/>
-      <c r="B19" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="E19" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="F19" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="L19" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="M19" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="N19" s="67" t="s">
-        <v>16</v>
-      </c>
-      <c r="O19" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="P19" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q19" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="R19" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="S19" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="T19" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="U19" s="67" t="s">
-        <v>16</v>
-      </c>
       <c r="V19" s="64" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="43"/>
+      <c r="A20" s="43" t="s">
+        <v>27</v>
+      </c>
       <c r="B20" s="34" t="s">
         <v>6</v>
       </c>
@@ -2055,16 +2123,16 @@
         <v>1.0</v>
       </c>
       <c r="J20" s="56" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K20" s="70" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="L20" s="70" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M20" s="57" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N20" s="71">
         <v>1.0</v>
@@ -2076,19 +2144,19 @@
         <v>1.0</v>
       </c>
       <c r="Q20" s="56" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="R20" s="57" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="S20" s="28" t="s">
         <v>12</v>
       </c>
       <c r="T20" s="62" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="U20" s="63" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="V20" s="65">
         <v>1.0</v>
@@ -2120,25 +2188,25 @@
     </row>
     <row r="22">
       <c r="A22" s="20" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B22" s="73">
         <v>1.0</v>
       </c>
       <c r="C22" s="74" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D22" s="74" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E22" s="74" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F22" s="74" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G22" s="74" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H22" s="75">
         <v>1.0</v>
@@ -2168,16 +2236,16 @@
         <v>12</v>
       </c>
       <c r="Q22" s="56" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="R22" s="70" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="S22" s="70" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="T22" s="70" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="U22" s="70">
         <v>1.0</v>
@@ -2187,18 +2255,20 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="33"/>
+      <c r="A23" s="33" t="s">
+        <v>32</v>
+      </c>
       <c r="B23" s="76" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C23" s="77" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D23" s="77" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E23" s="77" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F23" s="77">
         <v>1.0</v>
@@ -2207,16 +2277,16 @@
         <v>1.0</v>
       </c>
       <c r="H23" s="78" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I23" s="56" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J23" s="70" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K23" s="70" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L23" s="70">
         <v>1.0</v>
@@ -2228,16 +2298,16 @@
         <v>12</v>
       </c>
       <c r="O23" s="62" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="P23" s="79" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="Q23" s="80" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="R23" s="80" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="S23" s="80">
         <v>1.0</v>
@@ -2246,16 +2316,18 @@
         <v>1.0</v>
       </c>
       <c r="U23" s="80" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="V23" s="81" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="33"/>
+      <c r="A24" s="33" t="s">
+        <v>33</v>
+      </c>
       <c r="B24" s="82" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C24" s="83">
         <v>1.0</v>
@@ -2264,19 +2336,19 @@
         <v>1.0</v>
       </c>
       <c r="E24" s="83" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F24" s="83" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G24" s="83" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H24" s="84" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I24" s="56" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="J24" s="70">
         <v>1.0</v>
@@ -2285,16 +2357,16 @@
         <v>1.0</v>
       </c>
       <c r="L24" s="70" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M24" s="70" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N24" s="70" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="O24" s="57" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="P24" s="21">
         <v>1.0</v>
@@ -2306,122 +2378,126 @@
         <v>12</v>
       </c>
       <c r="S24" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="T24" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="U24" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="V24" s="57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="H25" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="I25" s="85">
+        <v>1.0</v>
+      </c>
+      <c r="J25" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="O25" s="65">
+        <v>1.0</v>
+      </c>
+      <c r="P25" s="85">
+        <v>1.0</v>
+      </c>
+      <c r="Q25" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="R25" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="S25" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="T25" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="T24" s="70" t="s">
+      <c r="U25" s="89">
+        <v>1.0</v>
+      </c>
+      <c r="V25" s="64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="U24" s="70" t="s">
+      <c r="C26" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="V24" s="57" t="s">
+      <c r="D26" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="59">
+        <v>1.0</v>
+      </c>
+      <c r="H26" s="90">
+        <v>1.0</v>
+      </c>
+      <c r="I26" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="69" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="H25" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="I25" s="85">
-        <v>1.0</v>
-      </c>
-      <c r="J25" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="K25" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="L25" s="87" t="s">
-        <v>14</v>
-      </c>
-      <c r="M25" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="N25" s="59" t="s">
+      <c r="M26" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="O25" s="65">
-        <v>1.0</v>
-      </c>
-      <c r="P25" s="85">
-        <v>1.0</v>
-      </c>
-      <c r="Q25" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="R25" s="87" t="s">
-        <v>14</v>
-      </c>
-      <c r="S25" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="T25" s="88" t="s">
-        <v>21</v>
-      </c>
-      <c r="U25" s="89">
-        <v>1.0</v>
-      </c>
-      <c r="V25" s="64" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="33"/>
-      <c r="B26" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="59">
-        <v>1.0</v>
-      </c>
-      <c r="H26" s="90">
-        <v>1.0</v>
-      </c>
-      <c r="I26" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="L26" s="69" t="s">
-        <v>21</v>
-      </c>
-      <c r="M26" s="69" t="s">
-        <v>16</v>
-      </c>
       <c r="N26" s="69">
         <v>1.0</v>
       </c>
@@ -2451,7 +2527,9 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="33"/>
+      <c r="A27" s="33" t="s">
+        <v>36</v>
+      </c>
       <c r="B27" s="93">
         <v>1.0</v>
       </c>
@@ -2462,16 +2540,16 @@
         <v>12</v>
       </c>
       <c r="E27" s="56" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F27" s="57" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G27" s="94" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H27" s="95" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I27" s="91">
         <v>1.0</v>
@@ -2480,22 +2558,22 @@
         <v>1.0</v>
       </c>
       <c r="K27" s="62" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L27" s="58" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M27" s="59" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N27" s="96" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="O27" s="97" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="P27" s="64" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q27" s="28" t="s">
         <v>12</v>
@@ -2507,49 +2585,51 @@
         <v>1.0</v>
       </c>
       <c r="T27" s="64" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="U27" s="98" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="V27" s="99" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="33"/>
+      <c r="A28" s="33" t="s">
+        <v>37</v>
+      </c>
       <c r="B28" s="100">
         <v>1.0</v>
       </c>
       <c r="C28" s="101" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D28" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="102">
+        <v>1.0</v>
+      </c>
+      <c r="H28" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="98" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="69" t="s">
+      <c r="L28" s="59" t="s">
         <v>21</v>
-      </c>
-      <c r="F28" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="102">
-        <v>1.0</v>
-      </c>
-      <c r="H28" s="101" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" s="99" t="s">
-        <v>21</v>
-      </c>
-      <c r="K28" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="L28" s="59" t="s">
-        <v>17</v>
       </c>
       <c r="M28" s="28" t="s">
         <v>12</v>
@@ -2561,10 +2641,10 @@
         <v>1.0</v>
       </c>
       <c r="P28" s="58" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q28" s="59" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="R28" s="28" t="s">
         <v>12</v>
@@ -2574,22 +2654,24 @@
       </c>
       <c r="T28" s="4"/>
       <c r="U28" s="56" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="V28" s="57" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="43"/>
+      <c r="A29" s="43" t="s">
+        <v>38</v>
+      </c>
       <c r="B29" s="66" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C29" s="67" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D29" s="106" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E29" s="107">
         <v>1.0</v>
@@ -2598,16 +2680,16 @@
         <v>1.0</v>
       </c>
       <c r="G29" s="56" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H29" s="57" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I29" s="63" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J29" s="64" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K29" s="21">
         <v>1.0</v>
@@ -2616,16 +2698,16 @@
         <v>1.0</v>
       </c>
       <c r="M29" s="56" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N29" s="70" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O29" s="57" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="P29" s="88" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Q29" s="109">
         <v>1.0</v>
@@ -2634,16 +2716,16 @@
         <v>1.0</v>
       </c>
       <c r="S29" s="109" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="T29" s="89" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="U29" s="58" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="V29" s="59" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
@@ -2672,7 +2754,7 @@
     </row>
     <row r="31">
       <c r="A31" s="20" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B31" s="21">
         <v>1.0</v>
@@ -2681,19 +2763,19 @@
         <v>1.0</v>
       </c>
       <c r="D31" s="62" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E31" s="63" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F31" s="58" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G31" s="68" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H31" s="59" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I31" s="91">
         <v>1.0</v>
@@ -2702,19 +2784,19 @@
         <v>1.0</v>
       </c>
       <c r="K31" s="66" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="L31" s="69" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="M31" s="67" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="N31" s="56" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="O31" s="57" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="P31" s="65">
         <v>1.0</v>
@@ -2726,28 +2808,30 @@
         <v>12</v>
       </c>
       <c r="S31" s="63" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="T31" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="U31" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="V31" s="110">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="U31" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="V31" s="110">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="33"/>
-      <c r="B32" s="58" t="s">
-        <v>15</v>
-      </c>
       <c r="C32" s="59" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D32" s="88" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E32" s="109">
         <v>1.0</v>
@@ -2756,16 +2840,16 @@
         <v>1.0</v>
       </c>
       <c r="G32" s="111" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H32" s="28" t="s">
         <v>12</v>
       </c>
       <c r="I32" s="98" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J32" s="99" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K32" s="28" t="s">
         <v>12</v>
@@ -2777,34 +2861,36 @@
         <v>1.0</v>
       </c>
       <c r="N32" s="64" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O32" s="63" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="P32" s="66" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="Q32" s="4"/>
       <c r="R32" s="64" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="S32" s="105">
         <v>45658.0</v>
       </c>
       <c r="T32" s="4"/>
       <c r="U32" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="V32" s="112" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="V32" s="112" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="33"/>
-      <c r="B33" s="62" t="s">
-        <v>22</v>
-      </c>
       <c r="C33" s="21">
         <v>1.0</v>
       </c>
@@ -2812,19 +2898,19 @@
         <v>1.0</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F33" s="64" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G33" s="114" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H33" s="63" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="I33" s="64" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J33" s="21">
         <v>1.0</v>
@@ -2833,49 +2919,51 @@
         <v>1.0</v>
       </c>
       <c r="L33" s="62" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M33" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="N33" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="O33" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="N33" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="O33" s="115" t="s">
-        <v>17</v>
-      </c>
       <c r="P33" s="63" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q33" s="28" t="s">
         <v>12</v>
       </c>
       <c r="R33" s="58" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="S33" s="59" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="T33" s="66" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="U33" s="69" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="V33" s="67">
         <v>1.0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="33"/>
+      <c r="A34" s="33" t="s">
+        <v>45</v>
+      </c>
       <c r="B34" s="66" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C34" s="69" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D34" s="69" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E34" s="69">
         <v>1.0</v>
@@ -2884,43 +2972,43 @@
         <v>1.0</v>
       </c>
       <c r="G34" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" s="88" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" s="109">
+        <v>1.0</v>
+      </c>
+      <c r="M34" s="89">
+        <v>1.0</v>
+      </c>
+      <c r="N34" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="H34" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="I34" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="K34" s="88" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34" s="109">
-        <v>1.0</v>
-      </c>
-      <c r="M34" s="89">
-        <v>1.0</v>
-      </c>
-      <c r="N34" s="62" t="s">
-        <v>22</v>
-      </c>
       <c r="O34" s="116" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P34" s="117" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Q34" s="66" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="R34" s="69" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="S34" s="67" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="T34" s="28" t="s">
         <v>12</v>
@@ -2933,126 +3021,130 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="33"/>
+      <c r="A35" s="33" t="s">
+        <v>46</v>
+      </c>
       <c r="B35" s="66" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="69" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D35" s="67">
         <v>1.0</v>
       </c>
       <c r="E35" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="111" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="93">
+        <v>1.0</v>
+      </c>
+      <c r="I35" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="K35" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="L35" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="M35" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="N35" s="53">
+        <v>1.0</v>
+      </c>
+      <c r="O35" s="54">
+        <v>1.0</v>
+      </c>
+      <c r="P35" s="118" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q35" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="R35" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="S35" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="T35" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="111" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="93">
-        <v>1.0</v>
-      </c>
-      <c r="I35" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="J35" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="K35" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="L35" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="M35" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="N35" s="53">
-        <v>1.0</v>
-      </c>
-      <c r="O35" s="54">
-        <v>1.0</v>
-      </c>
-      <c r="P35" s="118" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q35" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="R35" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="S35" s="62" t="s">
+      <c r="U35" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="V35" s="63" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="65">
+        <v>1.0</v>
+      </c>
+      <c r="D36" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="T35" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="U35" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="V35" s="63" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="43"/>
-      <c r="B36" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="65">
-        <v>1.0</v>
-      </c>
-      <c r="D36" s="58" t="s">
-        <v>19</v>
-      </c>
       <c r="E36" s="59" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F36" s="114" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G36" s="63" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H36" s="100">
         <v>1.0</v>
       </c>
       <c r="I36" s="66" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="J36" s="69" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="K36" s="67">
         <v>1.0</v>
       </c>
       <c r="L36" s="58" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M36" s="59" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N36" s="60" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="O36" s="61">
         <v>1.0</v>
       </c>
       <c r="P36" s="66" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="Q36" s="69" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="R36" s="67" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="S36" s="64" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="T36" s="21">
         <v>1.0</v>
@@ -3061,11 +3153,11 @@
         <v>1.0</v>
       </c>
       <c r="V36" s="62" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="18">
     <mergeCell ref="P8:V8"/>
     <mergeCell ref="B9:V9"/>
     <mergeCell ref="B1:V1"/>
@@ -3075,18 +3167,13 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="P5:V5"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="A31:A36"/>
     <mergeCell ref="S28:T28"/>
     <mergeCell ref="B30:V30"/>
     <mergeCell ref="P32:Q32"/>
     <mergeCell ref="S32:T32"/>
     <mergeCell ref="I5:O5"/>
     <mergeCell ref="B8:O8"/>
-    <mergeCell ref="A10:A12"/>
     <mergeCell ref="B13:V13"/>
-    <mergeCell ref="A14:A16"/>
     <mergeCell ref="B17:V17"/>
     <mergeCell ref="B21:V21"/>
   </mergeCells>

--- a/uploads/schedule-febrero.xlsx
+++ b/uploads/schedule-febrero.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="51">
   <si>
     <t>MES</t>
   </si>
@@ -19,8 +19,7 @@
     <t>FEBRERO</t>
   </si>
   <si>
-    <t>DÍA
- SEMANA ACTIVO PLANTILLA</t>
+    <t>DÍA</t>
   </si>
   <si>
     <t>L</t>
@@ -39,6 +38,15 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>SEMANA</t>
+  </si>
+  <si>
+    <t>ACTIVO</t>
+  </si>
+  <si>
+    <t>PLANTILLA</t>
   </si>
   <si>
     <t>ANGIE</t>
@@ -563,7 +571,9 @@
     <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
@@ -578,7 +588,9 @@
     </xf>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
     <xf borderId="12" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -1097,7 +1109,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="41.25"/>
+    <col customWidth="1" min="1" max="1" width="21.13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1263,7 +1275,9 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9"/>
+      <c r="A4" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="B4" s="10">
         <v>6.0</v>
       </c>
@@ -1323,7 +1337,9 @@
       <c r="V5" s="4"/>
     </row>
     <row r="6">
-      <c r="A6" s="9"/>
+      <c r="A6" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="B6" s="12">
         <v>13.0</v>
       </c>
@@ -1389,7 +1405,9 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9"/>
+      <c r="A7" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="B7" s="12">
         <v>13.0</v>
       </c>
@@ -1504,7 +1522,7 @@
     </row>
     <row r="10">
       <c r="A10" s="20" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10" s="21">
         <v>1.0</v>
@@ -1513,34 +1531,34 @@
         <v>1.0</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M10" s="30" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N10" s="30">
         <v>1.0</v>
@@ -1549,19 +1567,19 @@
         <v>1.0</v>
       </c>
       <c r="P10" s="29" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q10" s="30" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="R10" s="30" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="S10" s="31" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="T10" s="32" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="U10" s="21">
         <v>1.0</v>
@@ -1572,37 +1590,37 @@
     </row>
     <row r="11">
       <c r="A11" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="G11" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="G11" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="H11" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="38" t="s">
-        <v>10</v>
-      </c>
       <c r="J11" s="39" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K11" s="40" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L11" s="40">
         <v>1.0</v>
@@ -1611,16 +1629,16 @@
         <v>1.0</v>
       </c>
       <c r="N11" s="40" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O11" s="41" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P11" s="39" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q11" s="40" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="R11" s="40">
         <v>1.0</v>
@@ -1629,24 +1647,24 @@
         <v>1.0</v>
       </c>
       <c r="T11" s="23" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="U11" s="42" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="V11" s="24" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>11</v>
-      </c>
       <c r="C12" s="26" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D12" s="21">
         <v>1.0</v>
@@ -1655,16 +1673,16 @@
         <v>1.0</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I12" s="44" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J12" s="45">
         <v>1.0</v>
@@ -1673,16 +1691,16 @@
         <v>1.0</v>
       </c>
       <c r="L12" s="46" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M12" s="46" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N12" s="46" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O12" s="47" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P12" s="45">
         <v>1.0</v>
@@ -1691,19 +1709,19 @@
         <v>1.0</v>
       </c>
       <c r="R12" s="46" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="S12" s="47" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T12" s="28" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="U12" s="25" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="V12" s="26" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -1732,7 +1750,7 @@
     </row>
     <row r="14">
       <c r="A14" s="20" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14" s="50" t="s">
         <v>7</v>
@@ -1744,7 +1762,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F14" s="53">
         <v>1.0</v>
@@ -1800,19 +1818,19 @@
     </row>
     <row r="15">
       <c r="A15" s="33" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15" s="56" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C15" s="57" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D15" s="58" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E15" s="59" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F15" s="60">
         <v>1.0</v>
@@ -1821,7 +1839,7 @@
         <v>1.0</v>
       </c>
       <c r="H15" s="62" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I15" s="34" t="s">
         <v>6</v>
@@ -1868,7 +1886,7 @@
     </row>
     <row r="16">
       <c r="A16" s="43" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16" s="21">
         <v>1.0</v>
@@ -1877,7 +1895,7 @@
         <v>1.0</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E16" s="50" t="s">
         <v>7</v>
@@ -1889,7 +1907,7 @@
         <v>7</v>
       </c>
       <c r="H16" s="63" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I16" s="21">
         <v>1.0</v>
@@ -1898,7 +1916,7 @@
         <v>1.0</v>
       </c>
       <c r="K16" s="64" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L16" s="50" t="s">
         <v>7</v>
@@ -1907,19 +1925,19 @@
         <v>7</v>
       </c>
       <c r="N16" s="64" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="O16" s="63" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="P16" s="65">
         <v>1.0</v>
       </c>
       <c r="Q16" s="58" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R16" s="59" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S16" s="50" t="s">
         <v>7</v>
@@ -1928,7 +1946,7 @@
         <v>7</v>
       </c>
       <c r="U16" s="28" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="V16" s="65">
         <v>1.0</v>
@@ -1960,7 +1978,7 @@
     </row>
     <row r="18">
       <c r="A18" s="20" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18" s="21">
         <v>1.0</v>
@@ -1969,134 +1987,134 @@
         <v>1.0</v>
       </c>
       <c r="D18" s="66" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E18" s="67" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F18" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="J18" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="K18" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="68" t="s">
+      <c r="M18" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="O18" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="P18" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="Q18" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="R18" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="59" t="s">
+      <c r="S18" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="J18" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="K18" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="L18" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="N18" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="O18" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="P18" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="Q18" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="R18" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="S18" s="67" t="s">
-        <v>20</v>
-      </c>
       <c r="T18" s="58" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="U18" s="59" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="V18" s="63" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="C19" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="E19" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="F19" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="G19" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="L19" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="M19" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="E19" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="F19" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" s="58" t="s">
+      <c r="O19" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="P19" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q19" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="R19" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="S19" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="T19" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="59" t="s">
+      <c r="U19" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="L19" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="M19" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="N19" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="O19" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="P19" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q19" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="R19" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="S19" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="T19" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="U19" s="67" t="s">
-        <v>20</v>
-      </c>
       <c r="V19" s="64" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="43" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" s="34" t="s">
         <v>6</v>
@@ -2123,40 +2141,40 @@
         <v>1.0</v>
       </c>
       <c r="J20" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="N20" s="71">
+        <v>1.0</v>
+      </c>
+      <c r="O20" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="P20" s="65">
+        <v>1.0</v>
+      </c>
+      <c r="Q20" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="R20" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="S20" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="T20" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="U20" s="63" t="s">
         <v>28</v>
-      </c>
-      <c r="K20" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="L20" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="M20" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="N20" s="71">
-        <v>1.0</v>
-      </c>
-      <c r="O20" s="72" t="s">
-        <v>12</v>
-      </c>
-      <c r="P20" s="65">
-        <v>1.0</v>
-      </c>
-      <c r="Q20" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="R20" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="S20" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="T20" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="U20" s="63" t="s">
-        <v>25</v>
       </c>
       <c r="V20" s="65">
         <v>1.0</v>
@@ -2188,64 +2206,64 @@
     </row>
     <row r="22">
       <c r="A22" s="20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B22" s="73">
         <v>1.0</v>
       </c>
       <c r="C22" s="74" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D22" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="75">
+        <v>1.0</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="N22" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="O22" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="P22" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="74" t="s">
+      <c r="R22" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="74" t="s">
+      <c r="S22" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="G22" s="74" t="s">
+      <c r="T22" s="70" t="s">
         <v>31</v>
-      </c>
-      <c r="H22" s="75">
-        <v>1.0</v>
-      </c>
-      <c r="I22" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="J22" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="K22" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="L22" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="M22" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="N22" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="O22" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="P22" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q22" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="R22" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="S22" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="T22" s="70" t="s">
-        <v>28</v>
       </c>
       <c r="U22" s="70">
         <v>1.0</v>
@@ -2256,19 +2274,19 @@
     </row>
     <row r="23">
       <c r="A23" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="76" t="s">
-        <v>29</v>
-      </c>
       <c r="C23" s="77" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D23" s="77" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E23" s="77" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F23" s="77">
         <v>1.0</v>
@@ -2277,79 +2295,79 @@
         <v>1.0</v>
       </c>
       <c r="H23" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" s="70">
+        <v>1.0</v>
+      </c>
+      <c r="M23" s="57">
+        <v>1.0</v>
+      </c>
+      <c r="N23" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="O23" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="P23" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q23" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="R23" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="S23" s="80">
+        <v>1.0</v>
+      </c>
+      <c r="T23" s="80">
+        <v>1.0</v>
+      </c>
+      <c r="U23" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="I23" s="56" t="s">
+      <c r="V23" s="81" t="s">
         <v>31</v>
-      </c>
-      <c r="J23" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="K23" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="L23" s="70">
-        <v>1.0</v>
-      </c>
-      <c r="M23" s="57">
-        <v>1.0</v>
-      </c>
-      <c r="N23" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="O23" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="P23" s="79" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q23" s="80" t="s">
-        <v>31</v>
-      </c>
-      <c r="R23" s="80" t="s">
-        <v>31</v>
-      </c>
-      <c r="S23" s="80">
-        <v>1.0</v>
-      </c>
-      <c r="T23" s="80">
-        <v>1.0</v>
-      </c>
-      <c r="U23" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="V23" s="81" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="33" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B24" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="83">
+        <v>1.0</v>
+      </c>
+      <c r="D24" s="83">
+        <v>1.0</v>
+      </c>
+      <c r="E24" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="83">
-        <v>1.0</v>
-      </c>
-      <c r="D24" s="83">
-        <v>1.0</v>
-      </c>
-      <c r="E24" s="83" t="s">
-        <v>28</v>
-      </c>
       <c r="F24" s="83" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G24" s="83" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H24" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="I24" s="56" t="s">
-        <v>28</v>
-      </c>
       <c r="J24" s="70">
         <v>1.0</v>
       </c>
@@ -2357,17 +2375,17 @@
         <v>1.0</v>
       </c>
       <c r="L24" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="N24" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="O24" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="M24" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="N24" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="O24" s="57" t="s">
-        <v>28</v>
-      </c>
       <c r="P24" s="21">
         <v>1.0</v>
       </c>
@@ -2375,24 +2393,24 @@
         <v>1.0</v>
       </c>
       <c r="R24" s="28" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="S24" s="56" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="T24" s="70" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U24" s="70" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="V24" s="57" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="33" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B25" s="34" t="s">
         <v>6</v>
@@ -2419,63 +2437,63 @@
         <v>1.0</v>
       </c>
       <c r="J25" s="86" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K25" s="86" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L25" s="87" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M25" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="O25" s="65">
+        <v>1.0</v>
+      </c>
+      <c r="P25" s="85">
+        <v>1.0</v>
+      </c>
+      <c r="Q25" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="N25" s="59" t="s">
+      <c r="R25" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="S25" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="O25" s="65">
-        <v>1.0</v>
-      </c>
-      <c r="P25" s="85">
-        <v>1.0</v>
-      </c>
-      <c r="Q25" s="86" t="s">
-        <v>18</v>
-      </c>
-      <c r="R25" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="S25" s="64" t="s">
-        <v>21</v>
-      </c>
       <c r="T25" s="88" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="U25" s="89">
         <v>1.0</v>
       </c>
       <c r="V25" s="64" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="33" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B26" s="66" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C26" s="67" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D26" s="58" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E26" s="68" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F26" s="68" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G26" s="59">
         <v>1.0</v>
@@ -2484,19 +2502,19 @@
         <v>1.0</v>
       </c>
       <c r="I26" s="56" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J26" s="57" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K26" s="66" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L26" s="69" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M26" s="69" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N26" s="69">
         <v>1.0</v>
@@ -2528,7 +2546,7 @@
     </row>
     <row r="27">
       <c r="A27" s="33" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B27" s="93">
         <v>1.0</v>
@@ -2537,19 +2555,19 @@
         <v>1.0</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E27" s="56" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F27" s="57" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G27" s="94" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H27" s="95" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I27" s="91">
         <v>1.0</v>
@@ -2558,25 +2576,25 @@
         <v>1.0</v>
       </c>
       <c r="K27" s="62" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L27" s="58" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M27" s="59" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N27" s="96" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="O27" s="97" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P27" s="64" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q27" s="28" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R27" s="21">
         <v>1.0</v>
@@ -2585,54 +2603,54 @@
         <v>1.0</v>
       </c>
       <c r="T27" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="U27" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="U27" s="98" t="s">
-        <v>18</v>
-      </c>
       <c r="V27" s="99" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="33" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B28" s="100">
         <v>1.0</v>
       </c>
       <c r="C28" s="101" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D28" s="66" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E28" s="69" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F28" s="67" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G28" s="102">
         <v>1.0</v>
       </c>
       <c r="H28" s="101" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I28" s="98" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J28" s="99" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K28" s="58" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L28" s="59" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M28" s="28" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N28" s="103">
         <v>1.0</v>
@@ -2641,91 +2659,91 @@
         <v>1.0</v>
       </c>
       <c r="P28" s="58" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q28" s="59" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R28" s="28" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="S28" s="105">
         <v>45658.0</v>
       </c>
       <c r="T28" s="4"/>
       <c r="U28" s="56" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V28" s="57" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="43" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B29" s="66" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C29" s="67" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D29" s="106" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="107">
+        <v>1.0</v>
+      </c>
+      <c r="F29" s="108">
+        <v>1.0</v>
+      </c>
+      <c r="G29" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="L29" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="M29" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="O29" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="P29" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q29" s="109">
+        <v>1.0</v>
+      </c>
+      <c r="R29" s="109">
+        <v>1.0</v>
+      </c>
+      <c r="S29" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="107">
-        <v>1.0</v>
-      </c>
-      <c r="F29" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="G29" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="I29" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="64" t="s">
+      <c r="T29" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="K29" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="L29" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="M29" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="N29" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="O29" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="P29" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q29" s="109">
-        <v>1.0</v>
-      </c>
-      <c r="R29" s="109">
-        <v>1.0</v>
-      </c>
-      <c r="S29" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="T29" s="89" t="s">
-        <v>18</v>
-      </c>
       <c r="U29" s="58" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="V29" s="59" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30">
@@ -2754,7 +2772,7 @@
     </row>
     <row r="31">
       <c r="A31" s="20" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B31" s="21">
         <v>1.0</v>
@@ -2763,20 +2781,20 @@
         <v>1.0</v>
       </c>
       <c r="D31" s="62" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E31" s="63" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F31" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="G31" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" s="59" t="s">
-        <v>21</v>
-      </c>
       <c r="I31" s="91">
         <v>1.0</v>
       </c>
@@ -2784,37 +2802,37 @@
         <v>1.0</v>
       </c>
       <c r="K31" s="66" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L31" s="69" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M31" s="67" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N31" s="56" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="O31" s="57" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="P31" s="65">
         <v>1.0</v>
       </c>
       <c r="Q31" s="34" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R31" s="36" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="S31" s="63" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="T31" s="58" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="U31" s="59" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="V31" s="110">
         <v>1.0</v>
@@ -2822,17 +2840,17 @@
     </row>
     <row r="32">
       <c r="A32" s="33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B32" s="58" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C32" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="88" t="s">
-        <v>18</v>
-      </c>
       <c r="E32" s="109">
         <v>1.0</v>
       </c>
@@ -2840,19 +2858,19 @@
         <v>1.0</v>
       </c>
       <c r="G32" s="111" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I32" s="98" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J32" s="99" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K32" s="28" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L32" s="21">
         <v>1.0</v>
@@ -2861,92 +2879,92 @@
         <v>1.0</v>
       </c>
       <c r="N32" s="64" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O32" s="63" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P32" s="66" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q32" s="4"/>
       <c r="R32" s="64" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="S32" s="105">
         <v>45658.0</v>
       </c>
       <c r="T32" s="4"/>
       <c r="U32" s="62" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="V32" s="112" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="33" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B33" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="D33" s="113">
+        <v>1.0</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="114" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="K33" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="L33" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="M33" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="D33" s="113">
-        <v>1.0</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F33" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="114" t="s">
-        <v>40</v>
-      </c>
-      <c r="H33" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="I33" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="J33" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="K33" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="L33" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="M33" s="66" t="s">
-        <v>25</v>
-      </c>
       <c r="N33" s="67" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O33" s="115" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P33" s="63" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q33" s="28" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R33" s="58" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="S33" s="59" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="T33" s="66" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="U33" s="69" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V33" s="67">
         <v>1.0</v>
@@ -2954,16 +2972,16 @@
     </row>
     <row r="34">
       <c r="A34" s="33" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B34" s="66" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C34" s="69" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D34" s="69" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E34" s="69">
         <v>1.0</v>
@@ -2972,19 +2990,19 @@
         <v>1.0</v>
       </c>
       <c r="G34" s="56" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H34" s="57" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I34" s="58" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J34" s="59" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K34" s="88" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L34" s="109">
         <v>1.0</v>
@@ -2993,25 +3011,25 @@
         <v>1.0</v>
       </c>
       <c r="N34" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="O34" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="P34" s="117" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q34" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="O34" s="116" t="s">
-        <v>19</v>
-      </c>
-      <c r="P34" s="117" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q34" s="66" t="s">
-        <v>25</v>
-      </c>
       <c r="R34" s="69" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="S34" s="67" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="T34" s="28" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="U34" s="21">
         <v>1.0</v>
@@ -3022,25 +3040,25 @@
     </row>
     <row r="35">
       <c r="A35" s="33" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B35" s="66" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C35" s="69" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D35" s="67">
         <v>1.0</v>
       </c>
       <c r="E35" s="64" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F35" s="111" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G35" s="64" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H35" s="93">
         <v>1.0</v>
@@ -3067,7 +3085,7 @@
         <v>1.0</v>
       </c>
       <c r="P35" s="118" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="Q35" s="21">
         <v>1.0</v>
@@ -3076,75 +3094,75 @@
         <v>1.0</v>
       </c>
       <c r="S35" s="62" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T35" s="58" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="U35" s="59" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="V35" s="63" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="43" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B36" s="64" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C36" s="65">
         <v>1.0</v>
       </c>
       <c r="D36" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="114" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" s="114" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="63" t="s">
-        <v>20</v>
-      </c>
       <c r="H36" s="100">
         <v>1.0</v>
       </c>
       <c r="I36" s="66" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J36" s="69" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K36" s="67">
         <v>1.0</v>
       </c>
       <c r="L36" s="58" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M36" s="59" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N36" s="60" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O36" s="61">
         <v>1.0</v>
       </c>
       <c r="P36" s="66" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q36" s="69" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R36" s="67" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S36" s="64" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="T36" s="21">
         <v>1.0</v>
@@ -3153,15 +3171,14 @@
         <v>1.0</v>
       </c>
       <c r="V36" s="62" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="17">
     <mergeCell ref="P8:V8"/>
     <mergeCell ref="B9:V9"/>
     <mergeCell ref="B1:V1"/>
-    <mergeCell ref="A2:A9"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
